--- a/exceles/Asignación AMPL.xlsx
+++ b/exceles/Asignación AMPL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Simio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Simio\exceles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>aserraderos/molinos</t>
   </si>
@@ -133,15 +133,6 @@
   <si>
     <t>invierno</t>
   </si>
-  <si>
-    <t>41?</t>
-  </si>
-  <si>
-    <t>24?</t>
-  </si>
-  <si>
-    <t>25?</t>
-  </si>
 </sst>
 </file>
 
@@ -169,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +171,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -299,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,6 +344,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H97" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+    <sheetView tabSelected="1" topLeftCell="N97" workbookViewId="0">
+      <selection activeCell="Z115" sqref="Z115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,13 +1853,13 @@
       <c r="P16" s="1">
         <v>15</v>
       </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
+      <c r="Q16" s="21">
+        <v>0</v>
+      </c>
+      <c r="R16" s="21">
+        <v>0</v>
+      </c>
+      <c r="S16" s="21">
         <v>1</v>
       </c>
       <c r="U16" s="2">
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="R27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="4">
         <v>1</v>
@@ -3453,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="4">
         <v>1</v>
@@ -5878,16 +5878,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69" s="21">
         <v>68</v>
       </c>
-      <c r="Q69" s="1">
-        <v>0</v>
-      </c>
-      <c r="R69" s="1">
-        <v>0</v>
-      </c>
-      <c r="S69" s="1">
+      <c r="Q69" s="21">
+        <v>0</v>
+      </c>
+      <c r="R69" s="21">
+        <v>0</v>
+      </c>
+      <c r="S69" s="21">
         <v>1</v>
       </c>
       <c r="U69" s="4">
@@ -6186,13 +6186,13 @@
         <v>72</v>
       </c>
       <c r="Q73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="1">
         <v>0</v>
       </c>
       <c r="S73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" s="4">
         <v>0</v>
@@ -8403,7 +8403,7 @@
         <v>6</v>
       </c>
       <c r="AA103" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
@@ -8446,7 +8446,7 @@
         <v>4</v>
       </c>
       <c r="W104" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X104" s="12">
         <v>6</v>
@@ -8501,7 +8501,7 @@
         <v>6</v>
       </c>
       <c r="W105" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X105" s="16">
         <v>5</v>
@@ -8513,7 +8513,7 @@
         <v>7</v>
       </c>
       <c r="AA105" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
@@ -8650,12 +8650,9 @@
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="L109" s="18">
+      <c r="L109" s="19">
         <f t="shared" si="5"/>
         <v>24</v>
-      </c>
-      <c r="M109" t="s">
-        <v>37</v>
       </c>
       <c r="N109" s="1"/>
       <c r="R109" t="s">
@@ -8690,7 +8687,7 @@
       </c>
       <c r="AA109" s="19">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
@@ -8745,7 +8742,7 @@
       </c>
       <c r="W110" s="19">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X110" s="19">
         <f t="shared" si="8"/>
@@ -8782,7 +8779,7 @@
       </c>
       <c r="W111" s="19">
         <f t="shared" si="9"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X111" s="18">
         <f t="shared" si="9"/>
@@ -8798,20 +8795,11 @@
       </c>
       <c r="AA111" s="18">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N112" s="1"/>
-      <c r="U112" t="s">
-        <v>36</v>
-      </c>
-      <c r="X112" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA112" t="s">
-        <v>35</v>
-      </c>
       <c r="AB112" s="20"/>
     </row>
     <row r="113" spans="14:14" x14ac:dyDescent="0.25">

--- a/exceles/Asignación AMPL.xlsx
+++ b/exceles/Asignación AMPL.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>aserraderos/molinos</t>
   </si>
@@ -72,15 +72,6 @@
   </si>
   <si>
     <t>paper</t>
-  </si>
-  <si>
-    <t>41 d.l. en sus 31 aserraderos</t>
-  </si>
-  <si>
-    <t>49 d.l. en sus 39 aserraderos</t>
-  </si>
-  <si>
-    <t>40 dias libres en sus 30 aserraderos</t>
   </si>
   <si>
     <t>bright:</t>
@@ -296,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,14 +328,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -663,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N97" workbookViewId="0">
-      <selection activeCell="Z115" sqref="Z115"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,17 +1768,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="19">
         <v>14</v>
       </c>
-      <c r="Q15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
+      <c r="Q15" s="19">
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19">
+        <v>1</v>
       </c>
       <c r="U15" s="4">
         <v>0</v>
@@ -1850,16 +1844,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="19">
         <v>15</v>
       </c>
-      <c r="Q16" s="21">
-        <v>0</v>
-      </c>
-      <c r="R16" s="21">
-        <v>0</v>
-      </c>
-      <c r="S16" s="21">
+      <c r="Q16" s="19">
+        <v>0</v>
+      </c>
+      <c r="R16" s="19">
+        <v>0</v>
+      </c>
+      <c r="S16" s="19">
         <v>1</v>
       </c>
       <c r="U16" s="2">
@@ -2610,17 +2604,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="19">
         <v>25</v>
       </c>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
-        <v>1</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
+      <c r="Q26" s="19">
+        <v>0</v>
+      </c>
+      <c r="R26" s="19">
+        <v>0</v>
+      </c>
+      <c r="S26" s="19">
+        <v>1</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
@@ -5878,16 +5872,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P69" s="21">
+      <c r="P69" s="19">
         <v>68</v>
       </c>
-      <c r="Q69" s="21">
-        <v>0</v>
-      </c>
-      <c r="R69" s="21">
-        <v>0</v>
-      </c>
-      <c r="S69" s="21">
+      <c r="Q69" s="19">
+        <v>0</v>
+      </c>
+      <c r="R69" s="19">
+        <v>0</v>
+      </c>
+      <c r="S69" s="19">
         <v>1</v>
       </c>
       <c r="U69" s="4">
@@ -6638,17 +6632,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P79" s="19">
         <v>78</v>
       </c>
-      <c r="Q79" s="1">
-        <v>1</v>
-      </c>
-      <c r="R79" s="1">
-        <v>0</v>
-      </c>
-      <c r="S79" s="1">
-        <v>0</v>
+      <c r="Q79" s="19">
+        <v>0</v>
+      </c>
+      <c r="R79" s="19">
+        <v>0</v>
+      </c>
+      <c r="S79" s="19">
+        <v>1</v>
       </c>
       <c r="U79" s="4">
         <v>0</v>
@@ -6714,17 +6708,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P80" s="19">
         <v>79</v>
       </c>
-      <c r="Q80" s="1">
-        <v>1</v>
-      </c>
-      <c r="R80" s="1">
-        <v>0</v>
-      </c>
-      <c r="S80" s="1">
-        <v>0</v>
+      <c r="Q80" s="19">
+        <v>0</v>
+      </c>
+      <c r="R80" s="19">
+        <v>0</v>
+      </c>
+      <c r="S80" s="19">
+        <v>1</v>
       </c>
       <c r="U80" s="2">
         <v>0</v>
@@ -8353,454 +8347,490 @@
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C103" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F103" s="8">
+        <f>SUMIF($B$2:$B$101,1,F$2:F$101)</f>
         <v>9</v>
       </c>
       <c r="G103" s="8">
+        <f t="shared" ref="G103:L103" si="4">SUMIF($B$2:$B$101,1,G$2:G$101)</f>
         <v>4</v>
       </c>
       <c r="H103" s="8">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I103" s="8">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J103" s="8">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K103" s="8">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="L103" s="9">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N103" s="1"/>
       <c r="T103" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U103" s="8">
+        <f>SUMIF($Q$2:$Q$101,1,U$2:U$101)</f>
         <v>9</v>
       </c>
       <c r="V103" s="8">
+        <f t="shared" ref="V103:AA105" si="5">SUMIF($Q$2:$Q$101,1,V$2:V$101)</f>
+        <v>4</v>
+      </c>
+      <c r="W103" s="8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="X103" s="8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Y103" s="8">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Z103" s="8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AA103" s="9">
+        <f t="shared" si="5"/>
         <v>3</v>
-      </c>
-      <c r="W103" s="8">
-        <v>6</v>
-      </c>
-      <c r="X103" s="8">
-        <v>6</v>
-      </c>
-      <c r="Y103" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z103" s="8">
-        <v>6</v>
-      </c>
-      <c r="AA103" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C104" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F104" s="12">
+        <f>SUMIF($C$2:$C$101,1,F$2:F$101)</f>
         <v>10</v>
       </c>
       <c r="G104" s="12">
+        <f t="shared" ref="G104:L104" si="6">SUMIF($C$2:$C$101,1,G$2:G$101)</f>
         <v>4</v>
       </c>
       <c r="H104" s="12">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I104" s="12">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="J104" s="12">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K104" s="12">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="L104" s="13">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="N104" s="1"/>
       <c r="T104" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U104" s="12">
-        <v>8</v>
+        <f>SUMIF($R$2:$R$101,1,U$2:U$101)</f>
+        <v>10</v>
       </c>
       <c r="V104" s="12">
+        <f t="shared" ref="V104:AA104" si="7">SUMIF($R$2:$R$101,1,V$2:V$101)</f>
         <v>4</v>
       </c>
       <c r="W104" s="12">
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="X104" s="12">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Y104" s="12">
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="Z104" s="12">
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="AA104" s="13">
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C105" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F105" s="16">
+        <f>SUMIF($D$2:$D$101,1,F$2:F$101)</f>
         <v>21</v>
       </c>
       <c r="G105" s="16">
+        <f t="shared" ref="G105:L105" si="8">SUMIF($D$2:$D$101,1,G$2:G$101)</f>
         <v>5</v>
       </c>
       <c r="H105" s="16">
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I105" s="16">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="J105" s="16">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="K105" s="16">
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="L105" s="17">
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="N105" s="1"/>
       <c r="T105" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="U105" s="16">
-        <v>23</v>
+        <f>SUMIF($S$2:$S$101,1,U$2:U$101)</f>
+        <v>21</v>
       </c>
       <c r="V105" s="16">
-        <v>6</v>
+        <f t="shared" ref="V105:AA105" si="9">SUMIF($S$2:$S$101,1,V$2:V$101)</f>
+        <v>5</v>
       </c>
       <c r="W105" s="16">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="X105" s="16">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="Y105" s="16">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="Z105" s="16">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="X105" s="16">
+      <c r="AA105" s="17">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="Y105" s="16">
-        <v>3</v>
-      </c>
-      <c r="Z105" s="16">
-        <v>7</v>
-      </c>
-      <c r="AA105" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N106" s="1"/>
-      <c r="O106" t="s">
+    </row>
+    <row r="107" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C108" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P106" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F107" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N107" s="1"/>
-      <c r="O107" t="s">
-        <v>13</v>
-      </c>
-      <c r="P107" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>24</v>
-      </c>
-      <c r="E108" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="1">
+      <c r="F108" s="12">
         <f>30-F103</f>
         <v>21</v>
       </c>
-      <c r="G108" s="1">
-        <f t="shared" ref="G108:L108" si="4">30-G103</f>
+      <c r="G108" s="12">
+        <f t="shared" ref="G108:L108" si="10">30-G103</f>
         <v>26</v>
       </c>
-      <c r="H108" s="1">
-        <f t="shared" si="4"/>
+      <c r="H108" s="12">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="I108" s="1">
-        <f t="shared" si="4"/>
+      <c r="I108" s="12">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="J108" s="1">
-        <f t="shared" si="4"/>
+      <c r="J108" s="12">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="K108" s="1">
-        <f t="shared" si="4"/>
+      <c r="K108" s="12">
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="L108" s="1">
-        <f t="shared" si="4"/>
+      <c r="L108" s="13">
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="N108" s="1"/>
-      <c r="O108" t="s">
-        <v>14</v>
-      </c>
-      <c r="P108" t="s">
-        <v>16</v>
-      </c>
-      <c r="U108" s="1" t="s">
+      <c r="R108" s="6"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
+      <c r="U108" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V108" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="W108" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X108" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V108" s="1" t="s">
+      <c r="Y108" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W108" s="1" t="s">
+      <c r="Z108" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="X108" s="1" t="s">
+      <c r="AA108" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Y108" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z108" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA108" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>25</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="C109" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="12">
         <f>31-F104</f>
         <v>21</v>
       </c>
-      <c r="G109" s="1">
-        <f t="shared" ref="G109:L109" si="5">31-G104</f>
+      <c r="G109" s="12">
+        <f t="shared" ref="G109:L109" si="11">31-G104</f>
         <v>27</v>
       </c>
-      <c r="H109" s="1">
-        <f t="shared" si="5"/>
+      <c r="H109" s="12">
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="I109" s="1">
-        <f t="shared" si="5"/>
+      <c r="I109" s="12">
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="J109" s="1">
-        <f t="shared" si="5"/>
+      <c r="J109" s="12">
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="K109" s="1">
-        <f t="shared" si="5"/>
+      <c r="K109" s="12">
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="L109" s="19">
-        <f t="shared" si="5"/>
+      <c r="L109" s="20">
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="N109" s="1"/>
-      <c r="R109" t="s">
+      <c r="R109" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S109" s="11"/>
+      <c r="T109" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U109" s="12">
+        <f>27-U103</f>
+        <v>18</v>
+      </c>
+      <c r="V109" s="12">
+        <f t="shared" ref="V109:AA109" si="12">27-V103</f>
+        <v>23</v>
+      </c>
+      <c r="W109" s="12">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="X109" s="12">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="Y109" s="12">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="Z109" s="12">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="AA109" s="13">
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
-      <c r="T109" t="s">
-        <v>12</v>
-      </c>
-      <c r="U109" s="1">
-        <f>28-U103</f>
-        <v>19</v>
-      </c>
-      <c r="V109" s="1">
-        <f t="shared" ref="V109:AA109" si="6">28-V103</f>
-        <v>25</v>
-      </c>
-      <c r="W109" s="19">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="X109" s="19">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="Y109" s="19">
-        <f t="shared" si="6"/>
+    </row>
+    <row r="110" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Z109" s="19">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="AA109" s="19">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>26</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="D110" s="15"/>
+      <c r="E110" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="16">
         <f>39-F105</f>
         <v>18</v>
       </c>
-      <c r="G110" s="1">
-        <f t="shared" ref="G110:L110" si="7">39-G105</f>
+      <c r="G110" s="16">
+        <f t="shared" ref="G110:L110" si="13">39-G105</f>
         <v>34</v>
       </c>
-      <c r="H110" s="1">
-        <f t="shared" si="7"/>
+      <c r="H110" s="16">
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
-      <c r="I110" s="1">
-        <f t="shared" si="7"/>
+      <c r="I110" s="16">
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
-      <c r="J110" s="1">
-        <f t="shared" si="7"/>
+      <c r="J110" s="16">
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
-      <c r="K110" s="1">
-        <f t="shared" si="7"/>
+      <c r="K110" s="16">
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
-      <c r="L110" s="1">
-        <f t="shared" si="7"/>
+      <c r="L110" s="17">
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="N110" s="1"/>
-      <c r="R110" t="s">
+      <c r="R110" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="S110" s="11"/>
+      <c r="T110" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U110" s="12">
+        <f>28-U104</f>
+        <v>18</v>
+      </c>
+      <c r="V110" s="12">
+        <f t="shared" ref="V110:AA110" si="14">28-V104</f>
+        <v>24</v>
+      </c>
+      <c r="W110" s="12">
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
-      <c r="T110" t="s">
-        <v>13</v>
-      </c>
-      <c r="U110" s="1">
-        <f>28-U104</f>
-        <v>20</v>
-      </c>
-      <c r="V110" s="1">
-        <f t="shared" ref="V110:AA110" si="8">28-V104</f>
+      <c r="X110" s="12">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="Y110" s="12">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="Z110" s="12">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="AA110" s="13">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N111" s="1"/>
+      <c r="R111" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="S111" s="15"/>
+      <c r="T111" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="U111" s="21">
+        <f>45-U105</f>
         <v>24</v>
       </c>
-      <c r="W110" s="19">
-        <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="X110" s="19">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="Y110" s="19">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="Z110" s="19">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
-      <c r="AA110" s="19">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="N111" s="1"/>
-      <c r="R111" t="s">
-        <v>34</v>
-      </c>
-      <c r="T111" t="s">
-        <v>14</v>
-      </c>
-      <c r="U111" s="18">
-        <f>44-U105</f>
-        <v>21</v>
-      </c>
-      <c r="V111" s="1">
-        <f t="shared" ref="V111:AA111" si="9">44-V105</f>
+      <c r="V111" s="21">
+        <f t="shared" ref="V111:AA111" si="15">45-V105</f>
+        <v>40</v>
+      </c>
+      <c r="W111" s="21">
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
-      <c r="W111" s="19">
-        <f t="shared" si="9"/>
-        <v>36</v>
-      </c>
-      <c r="X111" s="18">
-        <f t="shared" si="9"/>
-        <v>39</v>
-      </c>
-      <c r="Y111" s="19">
-        <f t="shared" si="9"/>
+      <c r="X111" s="21">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="Y111" s="21">
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
-      <c r="Z111" s="19">
-        <f t="shared" si="9"/>
+      <c r="Z111" s="21">
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
-      <c r="AA111" s="18">
-        <f t="shared" si="9"/>
-        <v>39</v>
+      <c r="AA111" s="22">
+        <f t="shared" si="15"/>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N112" s="1"/>
-      <c r="AB112" s="20"/>
+      <c r="AB112" s="18"/>
     </row>
     <row r="113" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N113" s="1"/>

--- a/exceles/Asignación AMPL.xlsx
+++ b/exceles/Asignación AMPL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$P$1:$S$101</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -655,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC113"/>
+  <dimension ref="A1:AI113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="N96" zoomScale="117" workbookViewId="0">
+      <selection activeCell="U110" sqref="U110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,9 +666,10 @@
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="14" max="14" width="26.140625" customWidth="1"/>
     <col min="16" max="16" width="26.140625" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -817,8 +818,9 @@
         <f>SUM(U2:AA2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -893,8 +895,9 @@
         <f t="shared" ref="AC3:AC66" si="1">SUM(U3:AA3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH3" s="1"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -969,8 +972,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH4" s="1"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1045,8 +1049,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH5" s="1"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1121,8 +1126,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH6" s="1"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1197,8 +1203,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1273,8 +1280,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1349,8 +1357,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1425,8 +1434,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH10" s="1"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1501,8 +1511,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH11" s="19"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1577,8 +1588,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH12" s="19"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1653,8 +1665,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH13" s="1"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1729,8 +1742,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1805,8 +1819,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH15" s="1"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1881,8 +1896,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH16" s="1"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1957,8 +1973,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH17" s="1"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2033,8 +2050,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH18" s="19"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2109,8 +2127,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH19" s="19"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2185,8 +2204,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2261,8 +2281,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH21" s="1"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2337,8 +2358,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH22" s="1"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2413,8 +2435,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH23" s="1"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2489,8 +2512,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH24" s="1"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2565,8 +2589,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH25" s="1"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2641,8 +2666,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH26" s="1"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2680,17 +2706,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="19">
         <v>26</v>
       </c>
-      <c r="Q27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0</v>
+      <c r="Q27" s="19">
+        <v>0</v>
+      </c>
+      <c r="R27" s="19">
+        <v>0</v>
+      </c>
+      <c r="S27" s="19">
+        <v>1</v>
       </c>
       <c r="U27" s="4">
         <v>1</v>
@@ -2717,8 +2743,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH27" s="1"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2793,8 +2820,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH28" s="1"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2869,8 +2897,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH29" s="1"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2945,8 +2974,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH30" s="1"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3021,8 +3051,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH31" s="1"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3097,8 +3128,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH32" s="1"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3173,8 +3205,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH33" s="1"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3249,8 +3282,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH34" s="1"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3325,8 +3359,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH35" s="1"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3401,8 +3436,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH36" s="1"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3477,8 +3513,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH37" s="1"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3553,8 +3590,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH38" s="1"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3629,8 +3667,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH39" s="19"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3705,8 +3744,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH40" s="1"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3781,8 +3821,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH41" s="1"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3857,8 +3898,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH42" s="1"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3933,8 +3975,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH43" s="19"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4009,8 +4052,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH44" s="19"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4085,8 +4129,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH45" s="1"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4161,8 +4206,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH46" s="1"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4237,8 +4283,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH47" s="1"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4313,8 +4360,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH48" s="1"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4389,8 +4437,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH49" s="1"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4465,8 +4514,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AH50" s="1"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4542,7 +4592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4618,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4694,7 +4744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4770,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4846,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4922,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4998,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5074,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5150,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5226,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5301,8 +5351,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI61" s="1"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5377,8 +5428,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI62" s="1"/>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5453,8 +5505,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI63" s="1"/>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5529,8 +5582,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI64" s="1"/>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5605,8 +5659,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI65" s="1"/>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5681,8 +5736,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI66" s="1"/>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5757,8 +5813,9 @@
         <f t="shared" ref="AC67:AC101" si="3">SUM(U67:AA67)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI67" s="1"/>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5833,8 +5890,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI68" s="1"/>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5909,8 +5967,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI69" s="1"/>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5985,8 +6044,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI70" s="1"/>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6061,8 +6121,9 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI71" s="1"/>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6137,8 +6198,9 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI72" s="1"/>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6213,8 +6275,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI73" s="1"/>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6289,8 +6352,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI74" s="1"/>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6365,8 +6429,9 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI75" s="1"/>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6441,8 +6506,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI76" s="1"/>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6517,8 +6583,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI77" s="1"/>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6593,8 +6660,9 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI78" s="1"/>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6669,8 +6737,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI79" s="1"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6745,8 +6814,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI80" s="1"/>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6821,8 +6891,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI81" s="1"/>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6897,8 +6968,9 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI82" s="1"/>
+    </row>
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6973,8 +7045,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI83" s="1"/>
+    </row>
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -7049,8 +7122,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI84" s="1"/>
+    </row>
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -7125,8 +7199,9 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI85" s="1"/>
+    </row>
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -7201,8 +7276,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI86" s="1"/>
+    </row>
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -7277,8 +7353,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI87" s="1"/>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -7354,7 +7431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7430,7 +7507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7506,7 +7583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7582,7 +7659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7658,7 +7735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7734,7 +7811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7810,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7886,7 +7963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -8390,7 +8467,7 @@
         <v>9</v>
       </c>
       <c r="V103" s="8">
-        <f t="shared" ref="V103:AA105" si="5">SUMIF($Q$2:$Q$101,1,V$2:V$101)</f>
+        <f t="shared" ref="V103:AA103" si="5">SUMIF($Q$2:$Q$101,1,V$2:V$101)</f>
         <v>4</v>
       </c>
       <c r="W103" s="8">
@@ -8456,7 +8533,7 @@
       </c>
       <c r="U104" s="12">
         <f>SUMIF($R$2:$R$101,1,U$2:U$101)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V104" s="12">
         <f t="shared" ref="V104:AA104" si="7">SUMIF($R$2:$R$101,1,V$2:V$101)</f>
@@ -8525,7 +8602,7 @@
       </c>
       <c r="U105" s="16">
         <f>SUMIF($S$2:$S$101,1,U$2:U$101)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V105" s="16">
         <f t="shared" ref="V105:AA105" si="9">SUMIF($S$2:$S$101,1,V$2:V$101)</f>
@@ -8762,32 +8839,32 @@
         <v>13</v>
       </c>
       <c r="U110" s="12">
-        <f>28-U104</f>
+        <f>27-U104</f>
         <v>18</v>
       </c>
       <c r="V110" s="12">
-        <f t="shared" ref="V110:AA110" si="14">28-V104</f>
-        <v>24</v>
+        <f t="shared" ref="V110:AA110" si="14">27-V104</f>
+        <v>23</v>
       </c>
       <c r="W110" s="12">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X110" s="12">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y110" s="12">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z110" s="12">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA110" s="13">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8800,32 +8877,32 @@
         <v>14</v>
       </c>
       <c r="U111" s="21">
-        <f>45-U105</f>
+        <f>46-U105</f>
         <v>24</v>
       </c>
       <c r="V111" s="21">
-        <f t="shared" ref="V111:AA111" si="15">45-V105</f>
-        <v>40</v>
+        <f t="shared" ref="V111:AA111" si="15">46-V105</f>
+        <v>41</v>
       </c>
       <c r="W111" s="21">
         <f t="shared" si="15"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X111" s="21">
         <f t="shared" si="15"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y111" s="21">
         <f t="shared" si="15"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z111" s="21">
         <f t="shared" si="15"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA111" s="22">
         <f t="shared" si="15"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
@@ -8836,7 +8913,6 @@
       <c r="N113" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L101"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/exceles/Asignación AMPL.xlsx
+++ b/exceles/Asignación AMPL.xlsx
@@ -338,7 +338,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N96" zoomScale="117" workbookViewId="0">
-      <selection activeCell="U110" sqref="U110"/>
+    <sheetView tabSelected="1" topLeftCell="P97" zoomScale="104" workbookViewId="0">
+      <selection activeCell="AC113" sqref="AC113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,17 +1782,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="22">
         <v>14</v>
       </c>
-      <c r="Q15" s="19">
-        <v>0</v>
-      </c>
-      <c r="R15" s="19">
-        <v>0</v>
-      </c>
-      <c r="S15" s="19">
-        <v>1</v>
+      <c r="Q15" s="22">
+        <v>0</v>
+      </c>
+      <c r="R15" s="22">
+        <v>1</v>
+      </c>
+      <c r="S15" s="22">
+        <v>0</v>
       </c>
       <c r="U15" s="4">
         <v>0</v>
@@ -6700,17 +6700,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P79" s="19">
+      <c r="P79" s="22">
         <v>78</v>
       </c>
-      <c r="Q79" s="19">
-        <v>0</v>
-      </c>
-      <c r="R79" s="19">
-        <v>0</v>
-      </c>
-      <c r="S79" s="19">
-        <v>1</v>
+      <c r="Q79" s="22">
+        <v>1</v>
+      </c>
+      <c r="R79" s="22">
+        <v>0</v>
+      </c>
+      <c r="S79" s="22">
+        <v>0</v>
       </c>
       <c r="U79" s="4">
         <v>0</v>
@@ -6777,17 +6777,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P80" s="19">
+      <c r="P80" s="22">
         <v>79</v>
       </c>
-      <c r="Q80" s="19">
-        <v>0</v>
-      </c>
-      <c r="R80" s="19">
-        <v>0</v>
-      </c>
-      <c r="S80" s="19">
-        <v>1</v>
+      <c r="Q80" s="22">
+        <v>1</v>
+      </c>
+      <c r="R80" s="22">
+        <v>0</v>
+      </c>
+      <c r="S80" s="22">
+        <v>0</v>
       </c>
       <c r="U80" s="2">
         <v>0</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="Z103" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA103" s="9">
         <f t="shared" si="5"/>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="AA104" s="13">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8622,11 +8622,11 @@
       </c>
       <c r="Z105" s="16">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA105" s="17">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8766,32 +8766,32 @@
         <v>12</v>
       </c>
       <c r="U109" s="12">
-        <f>27-U103</f>
-        <v>18</v>
+        <f>29-U103</f>
+        <v>20</v>
       </c>
       <c r="V109" s="12">
-        <f t="shared" ref="V109:AA109" si="12">27-V103</f>
-        <v>23</v>
+        <f t="shared" ref="V109:AA109" si="12">29-V103</f>
+        <v>25</v>
       </c>
       <c r="W109" s="12">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X109" s="12">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y109" s="12">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z109" s="12">
         <f t="shared" si="12"/>
         <v>23</v>
       </c>
-      <c r="AA109" s="13">
+      <c r="AA109" s="12">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8839,30 +8839,30 @@
         <v>13</v>
       </c>
       <c r="U110" s="12">
-        <f>27-U104</f>
-        <v>18</v>
+        <f>28-U104</f>
+        <v>19</v>
       </c>
       <c r="V110" s="12">
-        <f t="shared" ref="V110:AA110" si="14">27-V104</f>
-        <v>23</v>
+        <f t="shared" ref="V110:AA110" si="14">28-V104</f>
+        <v>24</v>
       </c>
       <c r="W110" s="12">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X110" s="12">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y110" s="12">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z110" s="12">
         <f t="shared" si="14"/>
-        <v>21</v>
-      </c>
-      <c r="AA110" s="13">
+        <v>22</v>
+      </c>
+      <c r="AA110" s="12">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
@@ -8877,32 +8877,32 @@
         <v>14</v>
       </c>
       <c r="U111" s="21">
-        <f>46-U105</f>
-        <v>24</v>
+        <f>43-U105</f>
+        <v>21</v>
       </c>
       <c r="V111" s="21">
-        <f t="shared" ref="V111:AA111" si="15">46-V105</f>
-        <v>41</v>
+        <f t="shared" ref="V111:AA111" si="15">43-V105</f>
+        <v>38</v>
       </c>
       <c r="W111" s="21">
         <f t="shared" si="15"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="X111" s="21">
         <f t="shared" si="15"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Y111" s="21">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z111" s="21">
         <f t="shared" si="15"/>
-        <v>38</v>
-      </c>
-      <c r="AA111" s="22">
+        <v>37</v>
+      </c>
+      <c r="AA111" s="21">
         <f t="shared" si="15"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">

--- a/exceles/Asignación AMPL.xlsx
+++ b/exceles/Asignación AMPL.xlsx
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P97" zoomScale="104" workbookViewId="0">
-      <selection activeCell="AC113" sqref="AC113"/>
+    <sheetView tabSelected="1" topLeftCell="M75" zoomScale="113" workbookViewId="0">
+      <selection activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,17 +2706,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P27" s="22">
         <v>26</v>
       </c>
-      <c r="Q27" s="19">
-        <v>0</v>
-      </c>
-      <c r="R27" s="19">
-        <v>0</v>
-      </c>
-      <c r="S27" s="19">
-        <v>1</v>
+      <c r="Q27" s="22">
+        <v>0</v>
+      </c>
+      <c r="R27" s="22">
+        <v>1</v>
+      </c>
+      <c r="S27" s="22">
+        <v>0</v>
       </c>
       <c r="U27" s="4">
         <v>1</v>
@@ -6854,17 +6854,17 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P81" s="19">
         <v>80</v>
       </c>
-      <c r="Q81" s="1">
-        <v>1</v>
-      </c>
-      <c r="R81" s="1">
-        <v>0</v>
-      </c>
-      <c r="S81" s="1">
-        <v>0</v>
+      <c r="Q81" s="19">
+        <v>0</v>
+      </c>
+      <c r="R81" s="19">
+        <v>0</v>
+      </c>
+      <c r="S81" s="19">
+        <v>1</v>
       </c>
       <c r="U81" s="4">
         <v>0</v>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="X103" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y103" s="8">
         <f t="shared" si="5"/>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="U104" s="12">
         <f>SUMIF($R$2:$R$101,1,U$2:U$101)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V104" s="12">
         <f t="shared" ref="V104:AA104" si="7">SUMIF($R$2:$R$101,1,V$2:V$101)</f>
@@ -8602,7 +8602,7 @@
       </c>
       <c r="U105" s="16">
         <f>SUMIF($S$2:$S$101,1,U$2:U$101)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V105" s="16">
         <f t="shared" ref="V105:AA105" si="9">SUMIF($S$2:$S$101,1,V$2:V$101)</f>
@@ -8614,7 +8614,7 @@
       </c>
       <c r="X105" s="16">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y105" s="16">
         <f t="shared" si="9"/>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="X109" s="12">
         <f t="shared" si="12"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y109" s="12">
         <f t="shared" si="12"/>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="U110" s="12">
         <f>28-U104</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V110" s="12">
         <f t="shared" ref="V110:AA110" si="14">28-V104</f>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="U111" s="21">
         <f>43-U105</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V111" s="21">
         <f t="shared" ref="V111:AA111" si="15">43-V105</f>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="X111" s="21">
         <f t="shared" si="15"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y111" s="21">
         <f t="shared" si="15"/>
@@ -8913,6 +8913,7 @@
       <c r="N113" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="P1:S101"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
